--- a/ChecklistC#Depth.xlsx
+++ b/ChecklistC#Depth.xlsx
@@ -4,10 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="14832" windowHeight="4704"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="5820" windowHeight="132" activeTab="1"/>
   </bookViews>
   <sheets>
-    <sheet name="C# Base" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 2 C# 2 Base" sheetId="1" r:id="rId1"/>
+    <sheet name="Part 3 LINQ and every thing" sheetId="4" r:id="rId2"/>
+    <sheet name="QA" sheetId="3" r:id="rId3"/>
+    <sheet name="Visual Paradigm in UML QA" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -19,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="157">
   <si>
     <t>closures</t>
   </si>
@@ -136,13 +139,791 @@
   </si>
   <si>
     <t>GetEnumerator()</t>
+  </si>
+  <si>
+    <t>diff attribute and association</t>
+  </si>
+  <si>
+    <t>Use Associations for Classes and Attributes for DataTypes</t>
+  </si>
+  <si>
+    <t>arity of generic types and methods</t>
+  </si>
+  <si>
+    <t>number of type parameters</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what can be generic ? </t>
+  </si>
+  <si>
+    <t>classes,structs,interfaces,and delegates, but Enums.</t>
+  </si>
+  <si>
+    <t>nested type</t>
+  </si>
+  <si>
+    <t>A type defined within a class or struct</t>
+  </si>
+  <si>
+    <t>Indexers</t>
+  </si>
+  <si>
+    <t>Finalizers</t>
+  </si>
+  <si>
+    <t>Indexers allow instances of a class or struct to be indexed just like arrays</t>
+  </si>
+  <si>
+    <t>destructors</t>
+  </si>
+  <si>
+    <t>Methods and nested types can be generic ( field declaration ), but Fields,Property,Indexers,Constructors,Events,Finalizers ( not field declaration ).</t>
+  </si>
+  <si>
+    <t>diff parameter and argument</t>
+  </si>
+  <si>
+    <t>parameter at method definition, argument at data input.</t>
+  </si>
+  <si>
+    <t>type inference ( var )</t>
+  </si>
+  <si>
+    <t>var keyword tells the compiler to use the type inference to determine the type of a variable</t>
+  </si>
+  <si>
+    <t>Tuple</t>
+  </si>
+  <si>
+    <t>Type constraints</t>
+  </si>
+  <si>
+    <t>a data structure that contains a sequence of elements of different data types</t>
+  </si>
+  <si>
+    <t>Case Application in MONTI</t>
+  </si>
+  <si>
+    <t>non-nullable value type</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> gets the System.Type of a type</t>
+  </si>
+  <si>
+    <t>default operators</t>
+  </si>
+  <si>
+    <t>typeof  operators</t>
+  </si>
+  <si>
+    <t>produces the default value of a type</t>
+  </si>
+  <si>
+    <t>Case: 
+// IsSiblingLoaded, IsCheckedContainer, Selected, SelectedPerList, IsMultiple, Sibling list
+        List&lt;Tuple&lt;bool, bool, bool, bool, bool, Dictionary&lt;string, string&gt;&gt;&gt; _listSetting = new List&lt;Tuple&lt;bool, bool, bool, bool, bool, Dictionary&lt;string, string&gt;&gt;&gt;();</t>
+  </si>
+  <si>
+    <t>static contructor</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> initialize any static data, or to perform a particular action that needs to be performed once only.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">When a type parameter is declared by a generic type or method , that </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>restrict</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> which types can be provided as type arguments</t>
+    </r>
+  </si>
+  <si>
+    <t>Unbounded type parameters</t>
+  </si>
+  <si>
+    <t>Type parameters that have no constraints,</t>
+  </si>
+  <si>
+    <t>unmanaged type</t>
+  </si>
+  <si>
+    <t>every value type except Nullable&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>nullable value type</t>
+  </si>
+  <si>
+    <t>int? , double?</t>
+  </si>
+  <si>
+    <t>??' operator</t>
+  </si>
+  <si>
+    <t>Use the '??' operator to assign a nullable type to a non-nullable type.</t>
+  </si>
+  <si>
+    <t>int? i = null;     
+int j = i ?? 0;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">diff boxed int and int </t>
+  </si>
+  <si>
+    <t>boxed int isnot normally visible in C#</t>
+  </si>
+  <si>
+    <t>public interface IDataContext : IDisposable
+{
+  IList&lt;T&gt; GetAll&lt;T&gt;() where T : class, new();
+}</t>
+  </si>
+  <si>
+    <t>?</t>
+  </si>
+  <si>
+    <t>virtual method</t>
+  </si>
+  <si>
+    <t xml:space="preserve">static method </t>
+  </si>
+  <si>
+    <t>Underlined Name</t>
+  </si>
+  <si>
+    <t>yield return</t>
+  </si>
+  <si>
+    <t>public static System.Collections.Generic.IEnumerable&lt;int&gt; Power(int number, int exponent) {
+        int result = 1;
+        for (int i = 0; i &lt; exponent; i++)
+        {
+            result = result * number;
+            yield return result;
+        }
+}</t>
+  </si>
+  <si>
+    <t>iterators are executed lazily.</t>
+  </si>
+  <si>
+    <t>execute code only when you need the value that it'll compute.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">lazy execution </t>
+  </si>
+  <si>
+    <t>was invented as part of lambda calculus.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">what make iterator lazy ? </t>
+  </si>
+  <si>
+    <t>IEnumerable&lt;int&gt; enumerable = Iterators.CreateSimpleIterator();
+using (IEnumerator&lt;int&gt; enumerator = enumerable.GetEnumerator())
+ {
+      while (enumerator.MoveNext())
+          {
+               int value = enumerator.Current;
+               Console.WriteLine(value);
+           }
+  }</t>
+  </si>
+  <si>
+    <t>+ return each element one at a time. 
+'+ In condition, The return type must be IEnumerable, IEnumerable&lt;T&gt;, IEnumerator,IEnumerator&lt;T&gt;</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">+ Methods has return IEnumerable&lt;T&gt; ,IEnumerator&lt;T&gt; not execute immediately until MoveNext() called.
++ using </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>yield return</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> partly</t>
+    </r>
+  </si>
+  <si>
+    <t>IDisposable</t>
+  </si>
+  <si>
+    <t>Nongeneric Ienumerator interface doen't extend Idisposable, but IEnumerator&lt;T&gt; does extend Idisposable.</t>
+  </si>
+  <si>
+    <t>why I implement both IEnumerable&lt;&gt; and IEnumerator&lt;T&gt;</t>
+  </si>
+  <si>
+    <t>Fixed-size buffers</t>
+  </si>
+  <si>
+    <t>is contained the chuck of memory , GC will not move it around</t>
+  </si>
+  <si>
+    <t>InternalsVisibleTo Attribute</t>
+  </si>
+  <si>
+    <t>Assembly-level</t>
+  </si>
+  <si>
+    <t>InternalsVisibleTo attribute is a well-known attribute for testing assemblies.This allows you to test the internal methods without using reflection</t>
+  </si>
+  <si>
+    <t>Strong-named assemblies</t>
+  </si>
+  <si>
+    <t>Strong-naming an assembly creates a unique identity for the assembly, and can prevent assembly conflicts.</t>
+  </si>
+  <si>
+    <t>assign assembly with strongnamekey .snk</t>
+  </si>
+  <si>
+    <t>comply a a file to .dll</t>
+  </si>
+  <si>
+    <t>csc /t:library /keyfile:TienNV25.snk Assembly1.cs</t>
+  </si>
+  <si>
+    <t>dll only show name class , and name method, not show details.</t>
+  </si>
+  <si>
+    <t>Step 1 : sn -k TienNV25.snk
+Step 2 gen key: sn -p TienNV25.snk TienNV25.pubkey
+Step 3 show public key : sn -tp TienNV25.pubkey
+Step 4 gen and assign Assembly :csc /t:library /keyfile:TienNV25.snk Assembly1.cs</t>
+  </si>
+  <si>
+    <t>csc /r:Assembly1.dll /keyfile:TienNV25.snk /out:Friend1.dll "H:\Book C# Base\CsharpInDepth4thEdition\Repo\MakeSeeSharpeeninBase\2.5.7InternalVisibleToAttributeCallAssembly\Friend1.cs"</t>
+  </si>
+  <si>
+    <t>AssemblyInfo
+[assembly: InternalsVisibleTo("NameOfProject")]</t>
+  </si>
+  <si>
+    <t>reference internal class and method with AssemblyInfo</t>
+  </si>
+  <si>
+    <t>privatekey and publickey assembly</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Using strong naming tool - sn.exe</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">2 types of assemblies : WeakNamedAssemblies, StrongNamedAssemblies
+An assembly name consistes of 4 Parts : 
+                 1.SimpleTextualName.
+                 2.Version Number.
+                 3.Culture information 
+                 4.Public key token
+=&gt; </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>StrongNamedAssemblies</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> includes 1,2,4.
+Assembly version : MajorVersion.MinorVersion.BuildNumer.RevisionNumber</t>
+    </r>
+  </si>
+  <si>
+    <t>demo InternalsVisibleTo with strong-named assemblies</t>
+  </si>
+  <si>
+    <t>https://www.meziantou.net/internalsvisibleto-with-strong-named-assemblies.htm</t>
+  </si>
+  <si>
+    <t>static class</t>
+  </si>
+  <si>
+    <t xml:space="preserve">cannot declare variable </t>
+  </si>
+  <si>
+    <t>diff return and  yield return</t>
+  </si>
+  <si>
+    <t>yield return is used for return IEnumerable,IEnumerator , and their generic , but return not.</t>
+  </si>
+  <si>
+    <t>abstract class can add keyword static</t>
+  </si>
+  <si>
+    <t>weakly typing and strongly typing</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Strong typing means that the type check is done at </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compile time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> and weak typing means that the type check is done at</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> run time</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.  .NET languages incorporate strong typing.</t>
+    </r>
+  </si>
+  <si>
+    <t>not clear in many case.</t>
+  </si>
+  <si>
+    <t>static and dynamic typing</t>
+  </si>
+  <si>
+    <t>explicit and implicit typing</t>
+  </si>
+  <si>
+    <t>Binding : a method call or field access</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve"> int I = int(3) + int(3.5)
+'+ Static :  </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>compiler</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> is able to determine the type of each expression and </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>check</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that it's used correctly.
++ Dynamic : leave </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>binding</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> to execution time.</t>
+    </r>
+  </si>
+  <si>
+    <t>types: local variables,fields,method parameters, or method return types.</t>
+  </si>
+  <si>
+    <t>+ Explicite :source code specifices all the types involved
+ +  Implicite : Omit types from source code.</t>
+  </si>
+  <si>
+    <t>diff complier and execution time (run-time)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+ compiler error : syntax errors, typechecking errros
++ run-time error : division by zero,dereferencing a null pointer, running out of memory.
+</t>
+  </si>
+  <si>
+    <t>object and collection initializers</t>
+  </si>
+  <si>
+    <t>diff static and dynamic typing</t>
+  </si>
+  <si>
+    <t>typing in compiler, or run-time.</t>
+  </si>
+  <si>
+    <t>projection initializer</t>
+  </si>
+  <si>
+    <t>in anonymous type, copying property or  field of objects.</t>
+  </si>
+  <si>
+    <t>Lamda expressions</t>
+  </si>
+  <si>
+    <t>make the delegate more concise.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">anonymous function </t>
+  </si>
+  <si>
+    <t>refer to both anonymous methods and lambda expressions.</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">anonymous methods </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>using delegate
+Action&lt;string&gt; action = delegate(string message)
+{
+   Console.WriteLine("In delegate: {0}", message);
+};
+action("Message");</t>
+    </r>
+  </si>
+  <si>
+    <t>Capturing variables , uncapturing variables</t>
+  </si>
+  <si>
+    <t xml:space="preserve">+  All of these are captured variables, these variables declared outside the immediate context of the lambda expression.
+ + Parameters to the lambda expression or local variables declared within the lambda expression.
+=&gt; The lamda expression can change the captured variables themselves.
+</t>
+  </si>
+  <si>
+    <t>extension method</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>static method</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> that is called as if they're instance methods, based on their</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> first parameter</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">.
+</t>
+    </r>
+  </si>
+  <si>
+    <t>Chainging method calls in extension method</t>
+  </si>
+  <si>
+    <t>Query expressions allow you to write concise code by using queryspecific clauses (select, where, let, group by, and so on)</t>
+  </si>
+  <si>
+    <t>Query expression</t>
+  </si>
+  <si>
+    <t>IEnumerable&lt;string&gt; query = from word in words
+where word.Length &gt; 4
+orderby word
+select word.ToUpper();</t>
+  </si>
+  <si>
+    <t>Range variables</t>
+  </si>
+  <si>
+    <t>transparent identifiers</t>
+  </si>
+  <si>
+    <t>They act as the per item input within each clause of the query.</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">from </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>word</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> in words
+where word.Length &gt; 4
+orderby word
+select word.ToUpper()</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">words.Select(word =&gt; new { word, length = word.Length })
+.Where(tmp =&gt; tmp.length &gt; 4)
+.OrderBy(tmp =&gt; tmp.length)
+.Select(tmp =&gt;
+string.Format("{0}: {1}", tmp.length, tmp.word.ToUpper()));
+The name tmp here isn’t part of the </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>query translation</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provides a set of static (Shared in Visual Basic) methods for </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>querying objects that implement IEnumerable&lt;T&gt;</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.</t>
+    </r>
+  </si>
+  <si>
+    <t>Enumerable Class</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Provides functionality to evaluate </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>queries against a specific data source</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> wherein the type of the data is not specified.</t>
+    </r>
+  </si>
+  <si>
+    <t xml:space="preserve"> Iqueryable</t>
+  </si>
+  <si>
+    <t>diff IQueryable and Ienumerable</t>
+  </si>
+  <si>
+    <t>+ Extension methods are additional custom methods which were originally not included with the class.
++ Extension methods can be added to custom, .NET Framework or third party classes, structs or interfaces.
++ The first parameter of the extension method must be of the type for which the extension method is applicable, preceded by the this keyword.
++ Extension methods can be used anywhere in the application by including the namespace of the extension method.
+public static class IntExtensions
+    {
+        public static bool IsGreaterThan(this int i, int value)
+        {
+            return i &gt; value;
+        }
+    }
++ Extension methods, which allow the translated query to be expressed via the
+Queryable class because of dbContext.Products implementing IQueryable&lt;Product&gt;
+var products = from product in dbContext.Products
+                                      where product.StockCount &gt; 0
+                                      orderby product.Price descending
+                                      select new { product.Name, product.Price };</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,6 +935,14 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -176,10 +965,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -190,8 +980,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -470,367 +1277,1688 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C50"/>
+  <dimension ref="A1:D90"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="B19" sqref="B19"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="8.88671875" style="3"/>
-    <col min="2" max="2" width="45" style="1" customWidth="1"/>
-    <col min="3" max="3" width="70" style="2" customWidth="1"/>
-    <col min="4" max="4" width="20.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.109375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="49.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="75.109375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="65.77734375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="25.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="3">
+        <v>1</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>4</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>5</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>6</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>7</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>8</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>9</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>10</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>11</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>12</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>13</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>14</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>15</v>
+      </c>
+      <c r="B15" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>16</v>
+      </c>
+      <c r="B16" s="1" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>17</v>
+      </c>
+      <c r="B17" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>18</v>
+      </c>
+      <c r="B18" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>19</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>20</v>
+      </c>
+      <c r="B20" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>21</v>
+      </c>
+      <c r="B21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>22</v>
+      </c>
+      <c r="B22" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>23</v>
+      </c>
+      <c r="B23" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>24</v>
+      </c>
+      <c r="B24" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="C24" s="2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>25</v>
+      </c>
+      <c r="B25" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>26</v>
+      </c>
+      <c r="B26" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>27</v>
+      </c>
+      <c r="B27" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="73.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>28</v>
+      </c>
+      <c r="B28" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>29</v>
+      </c>
+      <c r="B29" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>30</v>
+      </c>
+      <c r="B30" s="1" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>31</v>
+      </c>
+      <c r="B31" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>32</v>
+      </c>
+      <c r="B32" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>33</v>
+      </c>
+      <c r="B33" s="1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>34</v>
+      </c>
+      <c r="B34" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>35</v>
+      </c>
+      <c r="B35" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>36</v>
+      </c>
+      <c r="B36" s="1" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>37</v>
+      </c>
+      <c r="B37" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>38</v>
+      </c>
+      <c r="B38" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>39</v>
+      </c>
+      <c r="B39" s="5" t="s">
+        <v>69</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" ht="131.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>40</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>41</v>
+      </c>
+      <c r="B41" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="C41" s="6" t="s">
+        <v>87</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>42</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>43</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>44</v>
+      </c>
+      <c r="B44" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="6" t="s">
+        <v>88</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>45</v>
+      </c>
+      <c r="B45" s="1" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>46</v>
+      </c>
+      <c r="B46" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>47</v>
+      </c>
+      <c r="B47" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>48</v>
+      </c>
+      <c r="B48" s="1" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>49</v>
+      </c>
+      <c r="B49" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>50</v>
+      </c>
+      <c r="B50" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" ht="115.2" x14ac:dyDescent="0.3">
+      <c r="A51" s="3">
+        <v>51</v>
+      </c>
+      <c r="B51" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A52" s="3">
+        <v>52</v>
+      </c>
+      <c r="B52" s="1" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A53" s="3">
+        <v>53</v>
+      </c>
+      <c r="B53" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A54" s="3">
+        <v>54</v>
+      </c>
+      <c r="B54" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="1" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A55" s="3">
+        <v>55</v>
+      </c>
+      <c r="B55" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="D55" s="1" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A56" s="3">
+        <v>56</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A57" s="3">
+        <v>57</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>106</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A58" s="3">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A59" s="3">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A60" s="3">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A61" s="3">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A62" s="3">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A63" s="3">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A64" s="3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A65" s="3">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A66" s="3">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A67" s="3">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A68" s="3">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A69" s="3">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A70" s="3">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A71" s="3">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A72" s="3">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A73" s="3">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A74" s="3">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A75" s="3">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A76" s="3">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A77" s="3">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A78" s="3">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A79" s="3">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A80" s="3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A81" s="3">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A82" s="3">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A83" s="3">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A84" s="3">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A85" s="3">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="86" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A86" s="3">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="87" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A87" s="3">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="88" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A88" s="3">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="89" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A89" s="3">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="90" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A90" s="3">
+        <v>90</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A2:D50"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="C12" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="37.88671875" style="3" customWidth="1"/>
+    <col min="3" max="3" width="55.109375" style="4" customWidth="1"/>
+    <col min="4" max="4" width="86.21875" style="4" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="3">
+        <v>1</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>118</v>
+      </c>
+      <c r="D2" s="4" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="3">
+        <v>2</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="C3" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A4" s="3">
+        <v>3</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="56.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="3">
+        <v>4</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="72" x14ac:dyDescent="0.3">
+      <c r="A6" s="3">
+        <v>5</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A7" s="3">
+        <v>6</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="3">
+        <v>7</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="121.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="3">
+        <v>8</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A10" s="3">
+        <v>9</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" ht="100.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="3">
+        <v>10</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" ht="349.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A12" s="3">
+        <v>11</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>141</v>
+      </c>
+      <c r="D12" s="9" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" ht="58.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A13" s="3">
+        <v>12</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" ht="54" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="3">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" ht="79.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A15" s="3">
+        <v>14</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>143</v>
+      </c>
+      <c r="D15" s="4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="3">
+        <v>15</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D16" s="4" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="142.19999999999999" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A17" s="3">
+        <v>16</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="45" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A18" s="3">
+        <v>17</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="43.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A19" s="3">
+        <v>18</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="3">
+        <v>19</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="3">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="3">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="3">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="3">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="3">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="3">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="3">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="3">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="3">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="3">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="3">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="3">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="3">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="3">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="3">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="3">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="3">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="3">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="3">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="3">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="3">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="3">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="3">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="3">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="3">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="3">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="3">
+        <v>49</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C62"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="8.88671875" style="7"/>
+    <col min="2" max="2" width="47.6640625" customWidth="1"/>
+    <col min="3" max="3" width="67.6640625" customWidth="1"/>
+    <col min="4" max="4" width="36.21875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1" s="3">
+      <c r="A1" s="7">
         <v>1</v>
       </c>
+      <c r="B1" t="s">
+        <v>110</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" s="7">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="7">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="7">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="7">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="7">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="7">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="7">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="7">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="7">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="7">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="7">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="7">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="7">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="7">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="7">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="7">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="7">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="7">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="7">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A27" s="7">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A28" s="7">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A29" s="7">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A30" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A31" s="7">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A32" s="7">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A33" s="7">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A34" s="7">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A35" s="7">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A36" s="7">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A37" s="7">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A38" s="7">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A39" s="7">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A40" s="7">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A41" s="7">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A42" s="7">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A43" s="7">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A44" s="7">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A45" s="7">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A46" s="7">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A47" s="7">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A48" s="7">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A49" s="7">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A50" s="7">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A51" s="7">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A52" s="7">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A53" s="7">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A54" s="7">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A55" s="7">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A56" s="7">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A57" s="7">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A58" s="7">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A59" s="7">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A60" s="7">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A61" s="7">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A62" s="7">
+        <v>62</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="9.33203125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="36.77734375" style="1" customWidth="1"/>
+    <col min="3" max="3" width="47.33203125" style="1" customWidth="1"/>
+    <col min="4" max="4" width="18.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" s="1">
+        <v>1</v>
+      </c>
       <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" s="3">
+        <v>33</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
         <v>2</v>
       </c>
-      <c r="B2" s="1" t="s">
+      <c r="B2" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>3</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
         <v>4</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" s="3">
-        <v>3</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="3">
-        <v>4</v>
-      </c>
       <c r="B4" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
         <v>5</v>
       </c>
-      <c r="C4" s="2" t="s">
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="3">
-        <v>5</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
         <v>7</v>
       </c>
-      <c r="C5" s="2" t="s">
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="3">
-        <v>6</v>
-      </c>
-      <c r="B6" s="1" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
         <v>9</v>
       </c>
-      <c r="C6" s="2" t="s">
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
         <v>10</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="3">
-        <v>7</v>
-      </c>
-      <c r="B7" s="1" t="s">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
         <v>11</v>
       </c>
-      <c r="C7" s="2" t="s">
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
         <v>12</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="3">
-        <v>8</v>
-      </c>
-      <c r="B8" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
         <v>13</v>
       </c>
-      <c r="C8" s="2" t="s">
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
         <v>14</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="3">
-        <v>9</v>
-      </c>
-      <c r="B9" s="1" t="s">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
         <v>16</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="3">
-        <v>10</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="3">
-        <v>11</v>
-      </c>
-      <c r="B11" s="1" t="s">
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
         <v>21</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A12" s="3">
-        <v>12</v>
-      </c>
-      <c r="B12" s="1" t="s">
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
         <v>22</v>
       </c>
-      <c r="C12" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="3">
-        <v>13</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="3">
-        <v>14</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="C14" s="2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="3">
-        <v>15</v>
-      </c>
-      <c r="B15" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="3">
-        <v>16</v>
-      </c>
-      <c r="B16" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="3">
-        <v>17</v>
-      </c>
-      <c r="B17" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C17" s="2" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A18" s="3">
-        <v>18</v>
-      </c>
-      <c r="B18" s="1" t="s">
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
         <v>23</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="3">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="3">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="3">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="3">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="3">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="3">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="3">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A26" s="3">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A28" s="3">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A29" s="3">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A30" s="3">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A31" s="3">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A32" s="3">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A33" s="3">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A34" s="3">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A35" s="3">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A36" s="3">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A37" s="3">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A38" s="3">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A39" s="3">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A40" s="3">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A41" s="3">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A42" s="3">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A43" s="3">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A44" s="3">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A45" s="3">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A46" s="3">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A47" s="3">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A48" s="3">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A49" s="3">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A50" s="3">
-        <v>50</v>
       </c>
     </row>
   </sheetData>
